--- a/db/reports/web-export-starting-file.xlsx
+++ b/db/reports/web-export-starting-file.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="46360" windowHeight="26720" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="meta data" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -72,9 +72,6 @@
     <t>Data with #N/A have been quality assured and the value did not meet the parameter guidelines due to problems with calibration, verification, sampling or analysis. Further information on these missing values can be made available on request.</t>
   </si>
   <si>
-    <t>Falinski, Kim, Reed, Dana, Callender, Tova, Fielding, Emily, Newbold, Robin, &amp; Yurkanin, Alana. (2017). Hui o ka Wai Ola Water Quality Data [Data set]. Zenodo. http://doi.org/10.5281/zenodo.830050</t>
-  </si>
-  <si>
     <t>Parameter Type</t>
   </si>
   <si>
@@ -173,19 +170,16 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Falinski, Kim, Reed, Dana, Callender, Tova, Fielding, Emily, Newbold, Robin, &amp; Yurkanin, Alana. (2017). Hui o ka Wai Ola Water Quality Data [Data set]. Zenodo. http://doi.org/10.5281/zenodo.830049</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -252,7 +246,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -575,14 +569,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -621,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -636,38 +630,38 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="14">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="14">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -677,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14">
@@ -691,13 +685,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14">
@@ -705,13 +699,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14">
@@ -719,13 +713,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14">
@@ -733,13 +727,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14">
@@ -747,13 +741,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28">
@@ -761,13 +755,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28">
@@ -775,13 +769,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28">
@@ -789,13 +783,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28">
@@ -803,13 +797,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28">
@@ -817,13 +811,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28">
@@ -831,13 +825,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14">
@@ -849,7 +843,7 @@
     <row r="23" spans="1:4" ht="14" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -877,7 +871,6 @@
       <c r="D26" s="5"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="2">
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B25:D26"/>
@@ -885,7 +878,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
